--- a/biology/Botanique/Vesce_argentée/Vesce_argentée.xlsx
+++ b/biology/Botanique/Vesce_argentée/Vesce_argentée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vesce_argent%C3%A9e</t>
+          <t>Vesce_argentée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Vesce argentée[1],[2] (Vicia argentea) est une plante herbacée, vivace, grimpante de la famille des Fabacées, de la sous-famille des Faboïdées, du genre Vicia [1].
-La plante est endémique des Pyrénées[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Vesce argentée, (Vicia argentea) est une plante herbacée, vivace, grimpante de la famille des Fabacées, de la sous-famille des Faboïdées, du genre Vicia .
+La plante est endémique des Pyrénées.
 Synonyme : Vicia canescens subsp. argentea (Lapeyr.) O.Bolòs &amp; Vigo
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vesce_argent%C3%A9e</t>
+          <t>Vesce_argentée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -521,7 +535,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vesce_argent%C3%A9e</t>
+          <t>Vesce_argentée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,9 +553,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante vivace de 20 à 40 cm avec des fleurs blanchâtres et striées de violet[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante vivace de 20 à 40 cm avec des fleurs blanchâtres et striées de violet.
 </t>
         </is>
       </c>
@@ -552,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vesce_argent%C3%A9e</t>
+          <t>Vesce_argentée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -570,9 +586,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante sauvage habitant les rochers et les hauts pâturages des Pyrénées centrales, françaises et espagnoles[3], on les trouve notamment dans la commune de Gavarnie-Gèdre [2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante sauvage habitant les rochers et les hauts pâturages des Pyrénées centrales, françaises et espagnoles, on les trouve notamment dans la commune de Gavarnie-Gèdre .
 </t>
         </is>
       </c>
